--- a/conditions/4_12_mod_init_adsorp_amt/稼働工程表.xlsx
+++ b/conditions/4_12_mod_init_adsorp_amt/稼働工程表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\conditions\4_12_sim_process2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\conditions\4_12_mod_init_adsorp_amt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BD3C7E-BB2B-4952-8609-1B39AADEB30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242348CB-87E8-441E-AD53-9B8DAA159849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34BEBECB-191F-4091-944B-D286D519E65A}"/>
   </bookViews>
@@ -715,7 +715,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G15" sqref="A14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
